--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed1/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.412</v>
+        <v>12.588</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.238</v>
+        <v>-7.726999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.672</v>
+        <v>-22.09</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.972</v>
+        <v>-12.927</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.415999999999999</v>
+        <v>-7.727000000000001</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.972</v>
+        <v>-12.927</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.244</v>
+        <v>-20.97</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.798</v>
+        <v>-21.038</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.562</v>
+        <v>-12.883</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.722</v>
+        <v>-8.048</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.302000000000001</v>
+        <v>-8.103999999999999</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.722</v>
+        <v>-8.028</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.938</v>
+        <v>-21.328</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.928</v>
+        <v>-12.719</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.536000000000001</v>
+        <v>-7.637</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.208</v>
+        <v>-22.269</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.432</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="21">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.762</v>
+        <v>-12.78</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.146000000000001</v>
+        <v>-7.995</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
